--- a/BAG 2.0/Conformiteitstoets/Referentieset_BAG 2.0 versie 1.15a.xlsx
+++ b/BAG 2.0/Conformiteitstoets/Referentieset_BAG 2.0 versie 1.15a.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\BAG\Implementatie BAG 2.0\Leveranciers\Github\BAG 2.0\Conformiteitstoets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\BAG\Implementatie BAG 2.0\Processen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="19080" windowHeight="6300" tabRatio="772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="19080" windowHeight="6300" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel Woonplaats" sheetId="1" r:id="rId1"/>
@@ -2384,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5820,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9665,7 +9665,7 @@
         <v>316</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>69</v>
@@ -11038,7 +11038,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:F29"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
